--- a/01)Organisatorisches/Aufgabenliste.xlsx
+++ b/01)Organisatorisches/Aufgabenliste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D61F544-D558-44D4-BA6C-B2E0199129E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A854E3-B16F-45A5-82C9-650B3285508C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Aufgabenliste</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Projektplan erstellen und hochladen</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>HTML, CSS, JS</t>
+  </si>
+  <si>
+    <t>siehe "Agile Methode - Gruppenmitgliede - Rollenverteilung.txt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>siehe Präsi</t>
   </si>
 </sst>
 </file>
@@ -211,14 +226,8 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,6 +235,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,181 +534,196 @@
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
